--- a/Reports/Apriori.xlsx
+++ b/Reports/Apriori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ALESSANDRA\poli\5° ANNO\MINING PATTERNS IN DATA\ProjectsOfMiningPatternsInData\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A46657-9A0E-4A74-A8A4-C9F9A66BE4CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E93A4-3ADD-4121-A4F0-435061EAF8E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4860" xr2:uid="{93FA775B-083D-41A1-978D-664E19CBC73C}"/>
   </bookViews>
@@ -114,12 +114,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1149,7 +1149,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1162,14 +1162,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
+              <a:rPr lang="it-IT" u="sng"/>
               <a:t>Apriori performances</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
+              <a:rPr lang="it-IT" u="sng" baseline="0"/>
               <a:t> - MEMORY</a:t>
             </a:r>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="it-IT" u="sng"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1177,8 +1177,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.55938192383883178"/>
-          <c:y val="2.5225225225225224E-2"/>
+          <c:x val="0.24808009209285778"/>
+          <c:y val="1.4414414414414415E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1194,7 +1194,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3700,7 +3700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCE8AF4-53E6-4F57-8D73-F5D41590ACF4}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
@@ -3721,41 +3721,41 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>0.95</v>
       </c>
       <c r="B4">
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0.89999999999999902</v>
       </c>
       <c r="B5">
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>0.84999999999999898</v>
       </c>
       <c r="B6">
@@ -4018,7 +4018,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>0.79999999999999905</v>
       </c>
       <c r="B7">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>0.749999999999999</v>
       </c>
       <c r="B8">
@@ -4139,7 +4139,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>0.7</v>
       </c>
       <c r="B9">
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>0.64999999999999902</v>
       </c>
       <c r="B10">
@@ -4233,7 +4233,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>0.59999999999999898</v>
       </c>
       <c r="B11">
@@ -4280,7 +4280,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>0.54999999999999905</v>
       </c>
       <c r="B12">
@@ -4327,7 +4327,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>0.499999999999999</v>
       </c>
       <c r="B13">
@@ -4374,7 +4374,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>0.44999999999999901</v>
       </c>
       <c r="B14">
@@ -4421,7 +4421,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>0.39999999999999902</v>
       </c>
       <c r="B15">
@@ -4617,135 +4617,135 @@
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.75</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>129</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>20717000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>0.75</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>1047</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>15252440</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>0.75</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>628</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>10131936</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.7</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>113</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>2333384</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>0.7</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>1068</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>23587624</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>0.7</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>600</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>52455888</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.35</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>602</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>36092080</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>0.4</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>1225</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>9955936</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>0.3</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>957</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>30078640</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>0.35</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>535</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>19135392</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0.25</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>2158</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>83981144</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>0.3</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>584</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>9173712</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Reports/Apriori.xlsx
+++ b/Reports/Apriori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ALESSANDRA\poli\5° ANNO\MINING PATTERNS IN DATA\ProjectsOfMiningPatternsInData\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E93A4-3ADD-4121-A4F0-435061EAF8E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82BFDF-436F-41B6-AC89-72B8F57C9FF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4860" xr2:uid="{93FA775B-083D-41A1-978D-664E19CBC73C}"/>
   </bookViews>

--- a/Reports/Apriori.xlsx
+++ b/Reports/Apriori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ALESSANDRA\poli\5° ANNO\MINING PATTERNS IN DATA\ProjectsOfMiningPatternsInData\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82BFDF-436F-41B6-AC89-72B8F57C9FF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA96309-A055-4596-A4EE-F45B70FB0394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4860" xr2:uid="{93FA775B-083D-41A1-978D-664E19CBC73C}"/>
   </bookViews>
@@ -315,40 +315,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>428</c:v>
+                  <c:v>0.42799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1209</c:v>
+                  <c:v>1.2090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2941</c:v>
+                  <c:v>2.9409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6813</c:v>
+                  <c:v>6.8129999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17618</c:v>
+                  <c:v>17.617999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41568</c:v>
+                  <c:v>41.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91054</c:v>
+                  <c:v>91.054000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209761</c:v>
+                  <c:v>209.761</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>485118</c:v>
+                  <c:v>485.11799999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1138586</c:v>
+                  <c:v>1138.586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,61 +463,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>0.13300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>243</c:v>
+                  <c:v>0.24299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>312</c:v>
+                  <c:v>0.312</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>495</c:v>
+                  <c:v>0.495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>889</c:v>
+                  <c:v>0.88900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2056</c:v>
+                  <c:v>2.056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14739</c:v>
+                  <c:v>14.739000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28041</c:v>
+                  <c:v>28.041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175534</c:v>
+                  <c:v>175.53399999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1214188</c:v>
+                  <c:v>1214.1880000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,46 +566,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>661</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>650</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>690</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>644</c:v>
+                  <c:v>0.64400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>671</c:v>
+                  <c:v>0.67100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>797</c:v>
+                  <c:v>0.79700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1008</c:v>
+                  <c:v>1.008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1323</c:v>
+                  <c:v>1.323</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1907</c:v>
+                  <c:v>1.907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4191</c:v>
+                  <c:v>4.1909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11610</c:v>
+                  <c:v>11.61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105262</c:v>
+                  <c:v>105.262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>422887</c:v>
+                  <c:v>422.887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1756007</c:v>
+                  <c:v>1756.0070000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,61 +654,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>491</c:v>
+                  <c:v>0.49099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>502</c:v>
+                  <c:v>0.502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499</c:v>
+                  <c:v>0.499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>492</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>487</c:v>
+                  <c:v>0.48699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>490</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>542</c:v>
+                  <c:v>0.54200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>513</c:v>
+                  <c:v>0.51300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>520</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>549</c:v>
+                  <c:v>0.54900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>523</c:v>
+                  <c:v>0.52300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>647</c:v>
+                  <c:v>0.64700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>568</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>546</c:v>
+                  <c:v>0.54600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>573</c:v>
+                  <c:v>0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>524</c:v>
+                  <c:v>0.52400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>572</c:v>
+                  <c:v>0.57199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>657</c:v>
+                  <c:v>0.65700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>627</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,19 +757,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1796</c:v>
+                  <c:v>1.796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14590</c:v>
+                  <c:v>14.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112363</c:v>
+                  <c:v>112.363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>757399</c:v>
+                  <c:v>757.399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3510174</c:v>
+                  <c:v>3510.174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,16 +818,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9129</c:v>
+                  <c:v>9.1289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100699</c:v>
+                  <c:v>100.699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519687</c:v>
+                  <c:v>519.68700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998078</c:v>
+                  <c:v>1998.078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,37 +882,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2375</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2645</c:v>
+                  <c:v>2.645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4987</c:v>
+                  <c:v>4.9870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8365</c:v>
+                  <c:v>8.3650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17506</c:v>
+                  <c:v>17.506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29195</c:v>
+                  <c:v>29.195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55026</c:v>
+                  <c:v>55.026000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111751</c:v>
+                  <c:v>111.751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>205769</c:v>
+                  <c:v>205.76900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>407856</c:v>
+                  <c:v>407.85599999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>830133</c:v>
+                  <c:v>830.13300000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,8 +944,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -982,7 +1042,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="511868512"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -991,6 +1051,7 @@
       <c:valAx>
         <c:axId val="511868512"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1009,8 +1070,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>[sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1041,9 +1165,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="511866216"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="250000"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1162,14 +1286,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" u="sng"/>
-              <a:t>Apriori performances</a:t>
+              <a:rPr lang="it-IT" u="none" baseline="0"/>
+              <a:t>Apriori performances - MEMORY</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" u="sng" baseline="0"/>
-              <a:t> - MEMORY</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" u="sng"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1255,35 +1374,62 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1298,15 +1444,42 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$C$4,Foglio1!$C$7)</c:f>
+              <c:f>(Foglio1!$C$4:$C$11,Foglio1!$C$13:$C$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14498792</c:v>
+                  <c:v>14158.9765625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54688432</c:v>
+                  <c:v>15572.5390625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10144.8203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53406.671875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137866.3984375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47496.8359375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287411.4296875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138674.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>830856.7578125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2202543.1171875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2400374.3984375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,35 +1530,62 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1400,36 +1600,63 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$F$4,Foglio1!$F$7,Foglio1!$F$16:$F$22)</c:f>
+              <c:f>(Foglio1!$F$4:$F$11,Foglio1!$F$13:$F$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>18598128</c:v>
+                  <c:v>18162.234375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3432248</c:v>
+                  <c:v>3339.140625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33978104</c:v>
+                  <c:v>8297.015625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56256648</c:v>
+                  <c:v>3351.8046875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46362144</c:v>
+                  <c:v>2305.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163292200</c:v>
+                  <c:v>15360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51571304</c:v>
+                  <c:v>3364.34375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>318185352</c:v>
+                  <c:v>24344.046875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2108277976</c:v>
+                  <c:v>16653.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5370.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31000.5859375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33181.7421875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54938.1328125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45275.53125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>159465.0390625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50362.6015625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310727.8828125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2058865.2109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,35 +1707,62 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1519,25 +1773,55 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Foglio1!$I$4:$I$17</c15:sqref>
+                    <c15:sqref>Foglio1!$I$4:$I$18</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$I$4,Foglio1!$I$7,Foglio1!$I$16:$I$17)</c:f>
+              <c:f>(Foglio1!$I$4:$I$11,Foglio1!$I$13:$I$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>89622040</c:v>
+                  <c:v>87521.5234375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116123160</c:v>
+                  <c:v>108429.15625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124334432</c:v>
+                  <c:v>91502.015625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211459192</c:v>
+                  <c:v>113401.5234375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67466.5703125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26631.3359375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66935.0703125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64030.8203125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20097.796875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94666.7734375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55840.21875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121420.34375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>206503.1171875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2065030.1171875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,35 +1872,62 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1631,36 +1942,63 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$L$4,Foglio1!$L$7,Foglio1!$L$16:$L$22)</c:f>
+              <c:f>(Foglio1!$L$4:$L$11,Foglio1!$L$13:$L$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>13971408</c:v>
+                  <c:v>13643.953125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18113744</c:v>
+                  <c:v>59101.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20484712</c:v>
+                  <c:v>14619.71875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23452416</c:v>
+                  <c:v>17689.203125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29311672</c:v>
+                  <c:v>59281.8125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51859056</c:v>
+                  <c:v>52212.6328125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17519680</c:v>
+                  <c:v>52243.40625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26363056</c:v>
+                  <c:v>53260.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23557720</c:v>
+                  <c:v>26752.734375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19946.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38449.6875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20004.6015625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22902.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28624.6796875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50643.609375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17109.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25745.171875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23005.5859375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,56 +2049,65 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.64999999999999902</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.59999999999999898</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.54999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>0.499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.44999999999999901</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1771,19 +2118,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Foglio1!$O$4:$O$8</c15:sqref>
+                    <c15:sqref>Foglio1!$O$4:$O$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$O$4,Foglio1!$O$7)</c:f>
+              <c:f>Foglio1!$O$4:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>153734184</c:v>
+                  <c:v>15013.0390625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137387768</c:v>
+                  <c:v>74158.6796875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76633.765625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134167.7421875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433150.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4331500.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,59 +2193,65 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.749999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.64999999999999902</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.59999999999999898</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.54999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.44999999999999901</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1897,19 +2262,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Foglio1!$R$4:$R$7</c15:sqref>
+                    <c15:sqref>Foglio1!$R$4:$R$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$R$4,Foglio1!$R$7)</c:f>
+              <c:f>Foglio1!$R$4:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56012064</c:v>
+                  <c:v>54699.28125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160924432</c:v>
+                  <c:v>190839.0546875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457081.28125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157152.765625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1571502.765625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,38 +2340,62 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$J$4,Foglio1!$J$7,Foglio1!$J$16:$J$22)</c:f>
+              <c:f>(Foglio1!$J$4:$J$11,Foglio1!$J$13:$J$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.79999999999999905</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64999999999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59999999999999898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2008,19 +2406,46 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Foglio1!$U$4:$U$14</c15:sqref>
+                    <c15:sqref>Foglio1!$U$4:$U$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Foglio1!$U$4,Foglio1!$U$7)</c:f>
+              <c:f>(Foglio1!$U$4:$U$11,Foglio1!$U$13:$U$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>264812160</c:v>
+                  <c:v>258605.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>276380784</c:v>
+                  <c:v>328934.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463453.71875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269903.109375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351737.3359375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102622.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>347530.203125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210208.8984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232695.1328125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249526.2109375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2495260.2109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,6 +2477,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Frequency [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2100,6 +2585,7 @@
         <c:axId val="507801760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2117,7 +2603,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Memory [KBytes]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2151,7 +2692,6 @@
         <c:crossAx val="377274976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="35000000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3327,15 +3867,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>529318</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>221796</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3364,14 +3904,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3700,13 +4240,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCE8AF4-53E6-4F57-8D73-F5D41590ACF4}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="U8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
@@ -3827,64 +4368,64 @@
         <v>0.95</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C4">
-        <v>14498792</v>
+        <v>14158.9765625</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>18598128</v>
+        <v>18162.234375</v>
       </c>
       <c r="G4">
         <v>0.95</v>
       </c>
       <c r="H4">
-        <v>661</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="I4">
-        <v>89622040</v>
+        <v>87521.5234375</v>
       </c>
       <c r="J4">
         <v>0.95</v>
       </c>
       <c r="K4">
-        <v>491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="L4">
-        <v>13971408</v>
+        <v>13643.953125</v>
       </c>
       <c r="M4">
         <v>0.95</v>
       </c>
       <c r="N4">
-        <v>1796</v>
+        <v>1.796</v>
       </c>
       <c r="O4">
-        <v>153734184</v>
+        <v>15013.0390625</v>
       </c>
       <c r="P4">
         <v>0.95</v>
       </c>
       <c r="Q4">
-        <v>9129</v>
+        <v>9.1289999999999996</v>
       </c>
       <c r="R4">
-        <v>56012064</v>
+        <v>54699.28125</v>
       </c>
       <c r="S4">
         <v>0.95</v>
       </c>
       <c r="T4">
-        <v>2375</v>
+        <v>2.375</v>
       </c>
       <c r="U4">
-        <v>264812160</v>
+        <v>258605.625</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3892,64 +4433,64 @@
         <v>0.89999999999999902</v>
       </c>
       <c r="B5">
-        <v>147</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="C5">
-        <v>15946280</v>
+        <v>15572.5390625</v>
       </c>
       <c r="D5">
         <v>0.89999999999999902</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F5">
-        <v>3419280</v>
+        <v>3339.140625</v>
       </c>
       <c r="G5">
         <v>0.89999999999999902</v>
       </c>
       <c r="H5">
-        <v>650</v>
+        <v>0.65</v>
       </c>
       <c r="I5">
-        <v>111031456</v>
+        <v>108429.15625</v>
       </c>
       <c r="J5">
         <v>0.89999999999999902</v>
       </c>
       <c r="K5">
-        <v>502</v>
+        <v>0.502</v>
       </c>
       <c r="L5">
-        <v>60520064</v>
+        <v>59101.625</v>
       </c>
       <c r="M5">
         <v>0.89999999999999902</v>
       </c>
       <c r="N5">
-        <v>14590</v>
+        <v>14.59</v>
       </c>
       <c r="O5">
-        <v>75938488</v>
+        <v>74158.6796875</v>
       </c>
       <c r="P5">
         <v>0.89999999999999902</v>
       </c>
       <c r="Q5">
-        <v>100699</v>
+        <v>100.699</v>
       </c>
       <c r="R5">
-        <v>195419192</v>
+        <v>190839.0546875</v>
       </c>
       <c r="S5">
         <v>0.89999999999999902</v>
       </c>
       <c r="T5">
-        <v>2645</v>
+        <v>2.645</v>
       </c>
       <c r="U5">
-        <v>336828544</v>
+        <v>328934.125</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -3957,64 +4498,64 @@
         <v>0.84999999999999898</v>
       </c>
       <c r="B6">
-        <v>428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C6">
-        <v>10388296</v>
+        <v>10144.8203125</v>
       </c>
       <c r="D6">
         <v>0.84999999999999898</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>0.04</v>
       </c>
       <c r="F6">
-        <v>8496144</v>
+        <v>8297.015625</v>
       </c>
       <c r="G6">
         <v>0.84999999999999898</v>
       </c>
       <c r="H6">
-        <v>690</v>
+        <v>0.69</v>
       </c>
       <c r="I6">
-        <v>93698064</v>
+        <v>91502.015625</v>
       </c>
       <c r="J6">
         <v>0.84999999999999898</v>
       </c>
       <c r="K6">
-        <v>499</v>
+        <v>0.499</v>
       </c>
       <c r="L6">
-        <v>14970592</v>
+        <v>14619.71875</v>
       </c>
       <c r="M6">
         <v>0.84999999999999898</v>
       </c>
       <c r="N6">
-        <v>112363</v>
+        <v>112.363</v>
       </c>
       <c r="O6">
-        <v>78472976</v>
+        <v>76633.765625</v>
       </c>
       <c r="P6">
         <v>0.84999999999999898</v>
       </c>
       <c r="Q6">
-        <v>519687</v>
+        <v>519.68700000000001</v>
       </c>
       <c r="R6">
-        <v>468051232</v>
+        <v>457081.28125</v>
       </c>
       <c r="S6">
         <v>0.84999999999999898</v>
       </c>
       <c r="T6">
-        <v>4987</v>
+        <v>4.9870000000000001</v>
       </c>
       <c r="U6">
-        <v>474576608</v>
+        <v>463453.71875</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -4022,64 +4563,64 @@
         <v>0.79999999999999905</v>
       </c>
       <c r="B7">
-        <v>1209</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="C7">
-        <v>54688432</v>
+        <v>53406.671875</v>
       </c>
       <c r="D7">
         <v>0.79999999999999905</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F7">
-        <v>3432248</v>
+        <v>3351.8046875</v>
       </c>
       <c r="G7">
         <v>0.79999999999999905</v>
       </c>
       <c r="H7">
-        <v>644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="I7">
-        <v>116123160</v>
+        <v>113401.5234375</v>
       </c>
       <c r="J7">
         <v>0.79999999999999905</v>
       </c>
       <c r="K7">
-        <v>492</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="L7">
-        <v>18113744</v>
+        <v>17689.203125</v>
       </c>
       <c r="M7">
         <v>0.79999999999999905</v>
       </c>
       <c r="N7">
-        <v>757399</v>
+        <v>757.399</v>
       </c>
       <c r="O7">
-        <v>137387768</v>
+        <v>134167.7421875</v>
       </c>
       <c r="P7">
         <v>0.79999999999999905</v>
       </c>
       <c r="Q7">
-        <v>1998078</v>
+        <v>1998.078</v>
       </c>
       <c r="R7">
-        <v>160924432</v>
+        <v>157152.765625</v>
       </c>
       <c r="S7">
         <v>0.79999999999999905</v>
       </c>
       <c r="T7">
-        <v>8365</v>
+        <v>8.3650000000000002</v>
       </c>
       <c r="U7">
-        <v>276380784</v>
+        <v>269903.109375</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4087,55 +4628,61 @@
         <v>0.749999999999999</v>
       </c>
       <c r="B8">
-        <v>2941</v>
+        <v>2.9409999999999998</v>
       </c>
       <c r="C8">
-        <v>141175192</v>
+        <v>137866.3984375</v>
       </c>
       <c r="D8">
         <v>0.749999999999999</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F8">
-        <v>2360704</v>
+        <v>2305.375</v>
       </c>
       <c r="G8">
         <v>0.749999999999999</v>
       </c>
       <c r="H8">
-        <v>671</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="I8">
-        <v>69085768</v>
+        <v>67466.5703125</v>
       </c>
       <c r="J8">
         <v>0.749999999999999</v>
       </c>
       <c r="K8">
-        <v>487</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="L8">
-        <v>60704576</v>
+        <v>59281.8125</v>
       </c>
       <c r="M8">
         <v>0.75</v>
       </c>
       <c r="N8">
-        <v>3510174</v>
+        <v>3510.174</v>
       </c>
       <c r="O8">
-        <v>443546304</v>
+        <v>433150.6875</v>
+      </c>
+      <c r="P8">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1571502.765625</v>
       </c>
       <c r="S8">
         <v>0.75</v>
       </c>
       <c r="T8">
-        <v>17506</v>
+        <v>17.506</v>
       </c>
       <c r="U8">
-        <v>360179032</v>
+        <v>351737.3359375</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -4143,46 +4690,52 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>6813</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="C9">
-        <v>48636760</v>
+        <v>47496.8359375</v>
       </c>
       <c r="D9">
         <v>0.7</v>
       </c>
       <c r="E9">
-        <v>56</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>15728640</v>
+        <v>15360</v>
       </c>
       <c r="G9">
         <v>0.7</v>
       </c>
       <c r="H9">
-        <v>797</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="I9">
-        <v>27270488</v>
+        <v>26631.3359375</v>
       </c>
       <c r="J9">
         <v>0.7</v>
       </c>
       <c r="K9">
-        <v>490</v>
+        <v>0.49</v>
       </c>
       <c r="L9">
-        <v>53465736</v>
+        <v>52212.6328125</v>
+      </c>
+      <c r="M9">
+        <v>0.7</v>
+      </c>
+      <c r="O9">
+        <v>4331500.6875</v>
       </c>
       <c r="S9">
         <v>0.7</v>
       </c>
       <c r="T9">
-        <v>29195</v>
+        <v>29.195</v>
       </c>
       <c r="U9">
-        <v>105085120</v>
+        <v>102622.1875</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -4190,46 +4743,46 @@
         <v>0.64999999999999902</v>
       </c>
       <c r="B10">
-        <v>17618</v>
+        <v>17.617999999999999</v>
       </c>
       <c r="C10">
-        <v>294309304</v>
+        <v>287411.4296875</v>
       </c>
       <c r="D10">
         <v>0.64999999999999902</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F10">
-        <v>3445088</v>
+        <v>3364.34375</v>
       </c>
       <c r="G10">
         <v>0.64999999999999902</v>
       </c>
       <c r="H10">
-        <v>1008</v>
+        <v>1.008</v>
       </c>
       <c r="I10">
-        <v>68541512</v>
+        <v>66935.0703125</v>
       </c>
       <c r="J10">
         <v>0.64999999999999902</v>
       </c>
       <c r="K10">
-        <v>542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="L10">
-        <v>53497248</v>
+        <v>52243.40625</v>
       </c>
       <c r="S10">
         <v>0.64999999999999902</v>
       </c>
       <c r="T10">
-        <v>55026</v>
+        <v>55.026000000000003</v>
       </c>
       <c r="U10">
-        <v>355870928</v>
+        <v>347530.203125</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -4237,46 +4790,46 @@
         <v>0.59999999999999898</v>
       </c>
       <c r="B11">
-        <v>41568</v>
+        <v>41.567999999999998</v>
       </c>
       <c r="C11">
-        <v>142002432</v>
+        <v>138674.25</v>
       </c>
       <c r="D11">
         <v>0.59999999999999898</v>
       </c>
       <c r="E11">
-        <v>94</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F11">
-        <v>24928304</v>
+        <v>24344.046875</v>
       </c>
       <c r="G11">
         <v>0.59999999999999898</v>
       </c>
       <c r="H11">
-        <v>1323</v>
+        <v>1.323</v>
       </c>
       <c r="I11">
-        <v>65567560</v>
+        <v>64030.8203125</v>
       </c>
       <c r="J11">
         <v>0.59999999999999898</v>
       </c>
       <c r="K11">
-        <v>513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="L11">
-        <v>54538752</v>
+        <v>53260.5</v>
       </c>
       <c r="S11">
         <v>0.59999999999999898</v>
       </c>
       <c r="T11">
-        <v>111751</v>
+        <v>111.751</v>
       </c>
       <c r="U11">
-        <v>215253912</v>
+        <v>210208.8984375</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4284,46 +4837,46 @@
         <v>0.54999999999999905</v>
       </c>
       <c r="B12">
-        <v>91054</v>
+        <v>91.054000000000002</v>
       </c>
       <c r="C12">
-        <v>149840880</v>
+        <v>146328.984375</v>
       </c>
       <c r="D12">
         <v>0.54999999999999905</v>
       </c>
       <c r="E12">
-        <v>104</v>
+        <v>0.104</v>
       </c>
       <c r="F12">
-        <v>22053200</v>
+        <v>21536.328125</v>
       </c>
       <c r="G12">
         <v>0.54999999999999905</v>
       </c>
       <c r="H12">
-        <v>1907</v>
+        <v>1.907</v>
       </c>
       <c r="I12">
-        <v>72021264</v>
+        <v>70333.265625</v>
       </c>
       <c r="J12">
         <v>0.54999999999999905</v>
       </c>
       <c r="K12">
-        <v>520</v>
+        <v>0.52</v>
       </c>
       <c r="L12">
-        <v>19446184</v>
+        <v>18990.4140625</v>
       </c>
       <c r="S12">
         <v>0.54999999999999905</v>
       </c>
       <c r="T12">
-        <v>205769</v>
+        <v>205.76900000000001</v>
       </c>
       <c r="U12">
-        <v>473655616</v>
+        <v>462554.3125</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -4331,46 +4884,46 @@
         <v>0.499999999999999</v>
       </c>
       <c r="B13">
-        <v>209761</v>
+        <v>209.761</v>
       </c>
       <c r="C13">
-        <v>850797320</v>
+        <v>830856.7578125</v>
       </c>
       <c r="D13">
         <v>0.499999999999999</v>
       </c>
       <c r="E13">
-        <v>133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F13">
-        <v>17052800</v>
+        <v>16653.125</v>
       </c>
       <c r="G13">
         <v>0.499999999999999</v>
       </c>
       <c r="H13">
-        <v>4191</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="I13">
-        <v>20580144</v>
+        <v>20097.796875</v>
       </c>
       <c r="J13">
         <v>0.499999999999999</v>
       </c>
       <c r="K13">
-        <v>549</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="L13">
-        <v>27394800</v>
+        <v>26752.734375</v>
       </c>
       <c r="S13">
         <v>0.499999999999999</v>
       </c>
       <c r="T13">
-        <v>407856</v>
+        <v>407.85599999999999</v>
       </c>
       <c r="U13">
-        <v>238279816</v>
+        <v>232695.1328125</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -4378,46 +4931,46 @@
         <v>0.44999999999999901</v>
       </c>
       <c r="B14">
-        <v>485118</v>
+        <v>485.11799999999999</v>
       </c>
       <c r="C14">
-        <v>2255404152</v>
+        <v>2202543.1171875</v>
       </c>
       <c r="D14">
         <v>0.44999999999999901</v>
       </c>
       <c r="E14">
-        <v>243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="F14">
-        <v>5499200</v>
+        <v>5370.3125</v>
       </c>
       <c r="G14">
         <v>0.44999999999999901</v>
       </c>
       <c r="H14">
-        <v>11610</v>
+        <v>11.61</v>
       </c>
       <c r="I14">
-        <v>96938776</v>
+        <v>94666.7734375</v>
       </c>
       <c r="J14">
         <v>0.44999999999999901</v>
       </c>
       <c r="K14">
-        <v>523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="L14">
-        <v>20425216</v>
+        <v>19946.5</v>
       </c>
       <c r="S14">
         <v>0.44999999999999901</v>
       </c>
       <c r="T14">
-        <v>830133</v>
+        <v>830.13300000000004</v>
       </c>
       <c r="U14">
-        <v>255514840</v>
+        <v>249526.2109375</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -4425,37 +4978,43 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="B15">
-        <v>1138586</v>
+        <v>1138.586</v>
       </c>
       <c r="C15">
-        <v>2457983384</v>
+        <v>2400374.3984375</v>
       </c>
       <c r="D15">
         <v>0.39999999999999902</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>0.312</v>
       </c>
       <c r="F15">
-        <v>31744600</v>
+        <v>31000.5859375</v>
       </c>
       <c r="G15">
         <v>0.4</v>
       </c>
       <c r="H15">
-        <v>105262</v>
+        <v>105.262</v>
       </c>
       <c r="I15">
-        <v>57180384</v>
+        <v>55840.21875</v>
       </c>
       <c r="J15">
         <v>0.4</v>
       </c>
       <c r="K15">
-        <v>647</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="L15">
-        <v>39372480</v>
+        <v>38449.6875</v>
+      </c>
+      <c r="S15">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="U15">
+        <v>2495260.2109375</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -4463,163 +5022,175 @@
         <v>0.35</v>
       </c>
       <c r="E16">
-        <v>495</v>
+        <v>0.495</v>
       </c>
       <c r="F16">
-        <v>33978104</v>
+        <v>33181.7421875</v>
       </c>
       <c r="G16">
         <v>0.35</v>
       </c>
       <c r="H16">
-        <v>422887</v>
+        <v>422.887</v>
       </c>
       <c r="I16">
-        <v>124334432</v>
+        <v>121420.34375</v>
       </c>
       <c r="J16">
         <v>0.35</v>
       </c>
       <c r="K16">
-        <v>568</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="L16">
-        <v>20484712</v>
+        <v>20004.6015625</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.3</v>
       </c>
       <c r="E17">
-        <v>889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="F17">
-        <v>56256648</v>
+        <v>54938.1328125</v>
       </c>
       <c r="G17">
         <v>0.3</v>
       </c>
       <c r="H17">
-        <v>1756007</v>
+        <v>1756.0070000000001</v>
       </c>
       <c r="I17">
-        <v>211459192</v>
+        <v>206503.1171875</v>
       </c>
       <c r="J17">
         <v>0.3</v>
       </c>
       <c r="K17">
-        <v>546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="L17">
-        <v>23452416</v>
+        <v>22902.75</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>0.25</v>
       </c>
       <c r="E18">
-        <v>2056</v>
+        <v>2.056</v>
       </c>
       <c r="F18">
-        <v>46362144</v>
+        <v>45275.53125</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
+      </c>
+      <c r="I18">
+        <v>2065030.1171875</v>
       </c>
       <c r="J18">
         <v>0.25</v>
       </c>
       <c r="K18">
-        <v>573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="L18">
-        <v>29311672</v>
+        <v>28624.6796875</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.2</v>
       </c>
       <c r="E19">
-        <v>14739</v>
+        <v>14.739000000000001</v>
       </c>
       <c r="F19">
-        <v>163292200</v>
+        <v>159465.0390625</v>
       </c>
       <c r="J19">
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="L19">
-        <v>51859056</v>
+        <v>50643.609375</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>0.15</v>
       </c>
       <c r="E20">
-        <v>28041</v>
+        <v>28.041</v>
       </c>
       <c r="F20">
-        <v>51571304</v>
+        <v>50362.6015625</v>
       </c>
       <c r="J20">
         <v>0.15</v>
       </c>
       <c r="K20">
-        <v>572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="L20">
-        <v>17519680</v>
+        <v>17109.0625</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1000</v>
+      </c>
       <c r="D21">
         <v>0.1</v>
       </c>
       <c r="E21">
-        <v>175534</v>
+        <v>175.53399999999999</v>
       </c>
       <c r="F21">
-        <v>318185352</v>
+        <v>310727.8828125</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>657</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="L21">
-        <v>26363056</v>
+        <v>25745.171875</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1024</v>
+      </c>
       <c r="D22">
         <v>0.05</v>
       </c>
       <c r="E22">
-        <v>1214188</v>
+        <v>1214.1880000000001</v>
       </c>
       <c r="F22">
-        <v>2108277976</v>
+        <v>2058865.2109375</v>
       </c>
       <c r="J22">
         <v>0.05</v>
       </c>
       <c r="K22">
-        <v>627</v>
+        <v>0.627</v>
       </c>
       <c r="L22">
-        <v>23557720</v>
+        <v>23005.5859375</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H25" s="2"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>0.75</v>
       </c>
@@ -4648,7 +5219,7 @@
         <v>10131936</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>0.7</v>
       </c>
